--- a/result.xlsx
+++ b/result.xlsx
@@ -399,6 +399,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>production</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>3B Lysine Linh Chi Đông Trùng hộp 100 viên nang Pulipha</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>3B Lysine Linh Chi Đông Trùng hộp 100 viên nang Pulipha</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3B STADA hộp 5 vỉ x 10 viên nén</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3B STADA hộp 5 vỉ x 10 viên nén</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A5"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -411,12 +450,12 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>3B Lysine Linh Chi Đông Trùng hộp 100 viên nang Pulipha</v>
+        <v>5 – MTHF &amp; Multivitamin hộp 30 viên nang Quatrefolic Mỹ</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3B STADA hộp 5 vỉ x 10 viên nén</v>
+        <v>5 – MTHF &amp; Multivitamin hộp 30 viên nang Quatrefolic Mỹ</v>
       </c>
     </row>
   </sheetData>
@@ -424,28 +463,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>production</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>5 – MTHF &amp; Multivitamin hộp 30 viên nang Quatrefolic Mỹ</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
-  </ignoredErrors>
-</worksheet>
 </file>